--- a/Clase9/excel/alumnos.xlsx
+++ b/Clase9/excel/alumnos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>nombre</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>carlos@gmail.com</t>
+  </si>
+  <si>
+    <t>carlo@</t>
   </si>
 </sst>
 </file>
@@ -393,13 +396,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -434,11 +441,48 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>